--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,19 +44,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,23 +429,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="16.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="24.42578125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="19.28515625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="23.140625" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="1" width="16.140625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.28515625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="24.42578125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.28515625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.140625"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>student_admission</t>
@@ -487,14 +487,14 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="2" s="1">
       <c r="J2" t="inlineStr">
         <is>
           <t>no. of Students</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>1</t>
@@ -536,15 +536,56 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
-    <row r="5" ht="12.75" customHeight="1" s="1"/>
-    <row r="6" ht="12.75" customHeight="1" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2892</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18/01/2006</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lesli Kumara</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>65747658778</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="5" s="1"/>
+    <row customHeight="1" ht="12.75" r="6" s="1"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -564,23 +605,23 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.5703125" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="29.5703125" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="12.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="14.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="12"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="29.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="8.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>course_id</t>
@@ -607,7 +648,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="2" s="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>1</t>
@@ -634,21 +675,21 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="F3" t="inlineStr">
         <is>
           <t>No. of courses</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="4" s="1">
       <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -668,22 +709,22 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="9.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="6.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="6.140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.42578125" customWidth="1" style="1" min="6" max="10"/>
-    <col width="14" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="9.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="6.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="6.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="12.42578125"/>
+    <col customWidth="1" max="10" min="6" style="1" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>student_id</t>
@@ -735,21 +776,21 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="L3" t="inlineStr">
         <is>
           <t>No. of Students</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="4" s="1">
       <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>

--- a/university.xlsx
+++ b/university.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="courses" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="student_courses" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="clubs" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="student_clubs" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">student_admission</t>
   </si>
@@ -94,6 +96,27 @@
   </si>
   <si>
     <t xml:space="preserve">No. of Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_students_club</t>
   </si>
 </sst>
 </file>
@@ -168,13 +191,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,14 +227,14 @@
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -271,7 +298,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
@@ -329,18 +356,18 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.01"/>
   </cols>
   <sheetData>
@@ -395,4 +422,114 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -460,10 +460,10 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100">
-      <selection activeCell="H10" activeCellId="0" pane="topLeft" sqref="H10"/>
+      <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2265625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="3" width="16.14"/>
     <col customWidth="1" max="5" min="5" style="3" width="14.28"/>
@@ -518,42 +518,42 @@
     <row customHeight="1" ht="12.75" r="2" s="4">
       <c r="A2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Dewmina</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>01/18/2006</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Lesli Kumara</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>3456789</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Ruwi, Muscat, Oman</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       <selection activeCell="F4" activeCellId="0" pane="topLeft" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="3" width="9.289999999999999"/>
     <col customWidth="1" max="2" min="2" style="3" width="12.42"/>
@@ -676,7 +676,7 @@
       <selection activeCell="J2" activeCellId="0" pane="topLeft" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="3" width="9.710000000000001"/>
     <col customWidth="1" max="2" min="2" style="3" width="6.28"/>
@@ -779,7 +779,7 @@
       <selection activeCell="F4" activeCellId="0" pane="topLeft" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData>
     <row customHeight="1" ht="12.75" r="1" s="4">
       <c r="A1" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
       <selection activeCell="H4" activeCellId="0" pane="topLeft" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
     <col customWidth="1" max="8" min="8" style="3" width="17.59"/>
   </cols>

--- a/university.xlsx
+++ b/university.xlsx
@@ -1,142 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20494A0E-85A5-4EB7-98A0-3B2A5B51A890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="courses" sheetId="2" r:id="rId2"/>
-    <sheet name="student_courses" sheetId="3" r:id="rId3"/>
-    <sheet name="clubs" sheetId="4" r:id="rId4"/>
-    <sheet name="student_clubs" sheetId="5" r:id="rId5"/>
+    <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="courses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="student_courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clubs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="student_clubs" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
-  <si>
-    <t>student_admission</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Guardian Names</t>
-  </si>
-  <si>
-    <t>Guardian Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>course_name</t>
-  </si>
-  <si>
-    <t>course_duration</t>
-  </si>
-  <si>
-    <t>prerequisites</t>
-  </si>
-  <si>
-    <t>instructors</t>
-  </si>
-  <si>
-    <t>No. of courses</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>No. of Students</t>
-  </si>
-  <si>
-    <t>Club_ID</t>
-  </si>
-  <si>
-    <t>Club_name</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>num_clubs</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>num_students_club</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -155,25 +49,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,318 +414,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="24.42578125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="19.28515625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="23.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>student_admission</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DoB</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Guardian Names</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guardian Telephone</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/01/2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lesli Kumara, Gangani Madawla</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3456789</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1"/>
+    <row r="5" ht="12.75" customHeight="1" s="1"/>
+    <row r="6" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12" customWidth="1" style="1" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="29.5703125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.5703125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.7109375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>course_duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prerequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instructors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No. of courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F2" sqref="F2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.28515625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.42578125" customWidth="1" style="1" min="6" max="10"/>
+    <col width="14" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>g1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>g2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>g3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>g5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>num_clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>num_students_club</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100">
       <selection activeCell="J3" activeCellId="0" pane="topLeft" sqref="J3"/>
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="2" s="4">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -534,22 +534,22 @@
           <t>18/01.2006</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Lesli Kyuamhgfio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>\</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>dfhjdkhfds</t>
         </is>
@@ -561,11 +561,36 @@
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="3" s="4">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>scat, Oman</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="4" s="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
     <row customHeight="1" ht="12.75" r="5" s="4"/>
     <row customHeight="1" ht="12.75" r="6" s="4"/>
   </sheetData>

--- a/university.xlsx
+++ b/university.xlsx
@@ -1,139 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1788FE12-8678-4A74-8B78-3FE1E2129F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="75" windowWidth="17205" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3165" yWindow="75" windowWidth="17205" windowHeight="11835" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="courses" sheetId="2" r:id="rId2"/>
-    <sheet name="student_courses" sheetId="3" r:id="rId3"/>
-    <sheet name="clubs" sheetId="4" r:id="rId4"/>
-    <sheet name="student_clubs" sheetId="5" r:id="rId5"/>
+    <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="courses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="student_courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clubs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="student_clubs" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>student_admission</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Guardian Names</t>
-  </si>
-  <si>
-    <t>Guardian Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>course_name</t>
-  </si>
-  <si>
-    <t>course_duration</t>
-  </si>
-  <si>
-    <t>prerequisites</t>
-  </si>
-  <si>
-    <t>instructors</t>
-  </si>
-  <si>
-    <t>No. of courses</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>No. of Students</t>
-  </si>
-  <si>
-    <t>Club_ID</t>
-  </si>
-  <si>
-    <t>Club_name</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>num_clubs</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>num_students_club</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,25 +49,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,306 +414,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col width="16.85546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="24.42578125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="19.28515625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="23.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>student_admission</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DoB</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Guardian Names</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guardian Telephone</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="1">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12" customWidth="1" style="1" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="29.5703125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.5703125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.7109375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="1">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>course_duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prerequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instructors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No. of courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.28515625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.42578125" customWidth="1" style="1" min="6" max="10"/>
+    <col width="14" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4" s="1">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>g1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>g2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>g3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>g5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="1">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>num_clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="1">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>num_students_club</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -1,139 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B226218-788D-41AE-B8DB-5A67AFCD4D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16440" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="courses" sheetId="2" r:id="rId2"/>
-    <sheet name="student_courses" sheetId="3" r:id="rId3"/>
-    <sheet name="clubs" sheetId="4" r:id="rId4"/>
-    <sheet name="student_clubs" sheetId="5" r:id="rId5"/>
+    <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="courses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="student_courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clubs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="student_clubs" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>student_admission</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Guardian Names</t>
-  </si>
-  <si>
-    <t>Guardian Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>course_name</t>
-  </si>
-  <si>
-    <t>course_duration</t>
-  </si>
-  <si>
-    <t>prerequisites</t>
-  </si>
-  <si>
-    <t>instructors</t>
-  </si>
-  <si>
-    <t>No. of courses</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>No. of Students</t>
-  </si>
-  <si>
-    <t>Club_ID</t>
-  </si>
-  <si>
-    <t>Club_name</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>num_clubs</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>num_students_club</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,28 +46,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,299 +414,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="16.85546875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.28515625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="24.42578125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.28515625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.140625"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row customHeight="1" ht="12.75" r="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>student_admission</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DoB</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Guardian Names</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guardian Telephone</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="2" s="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/01/2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lesli Kumara, Gangani Madawala</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>34567890-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="3" s="1">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1"/>
+    <row customHeight="1" ht="12.75" r="5" s="1"/>
+    <row customHeight="1" ht="12.75" r="6" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.28515625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.42578125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="14.5703125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="12"/>
+    <col customWidth="1" max="5" min="5" style="1" width="11.140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.5703125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="8.5703125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row customHeight="1" ht="12.75" r="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>course_duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prerequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instructors</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="2" s="1"/>
+    <row customHeight="1" ht="12.75" r="3" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No. of courses</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.7109375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="6.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="9"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9.28515625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="12.42578125"/>
+    <col customWidth="1" max="10" min="6" style="1" width="8.42578125"/>
+    <col customWidth="1" max="12" min="12" style="1" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4">
+    <row customHeight="1" ht="12.75" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>g1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>g2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>g3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>g5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="2" s="1"/>
+    <row customHeight="1" ht="12.75" r="3" s="1">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1">
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row customHeight="1" ht="12.75" r="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="3" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>num_clubs</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col customWidth="1" max="8" min="8" style="1" width="17.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4">
+    <row customHeight="1" ht="12.75" r="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="2" s="1"/>
+    <row customHeight="1" ht="12.75" r="3" s="1">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>num_students_club</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="12.75" r="5" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -1,139 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B226218-788D-41AE-B8DB-5A67AFCD4D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="courses" sheetId="2" r:id="rId2"/>
-    <sheet name="student_courses" sheetId="3" r:id="rId3"/>
-    <sheet name="clubs" sheetId="4" r:id="rId4"/>
-    <sheet name="student_clubs" sheetId="5" r:id="rId5"/>
+    <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="courses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="student_courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clubs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="student_clubs" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>student_admission</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Guardian Names</t>
-  </si>
-  <si>
-    <t>Guardian Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>course_name</t>
-  </si>
-  <si>
-    <t>course_duration</t>
-  </si>
-  <si>
-    <t>prerequisites</t>
-  </si>
-  <si>
-    <t>instructors</t>
-  </si>
-  <si>
-    <t>No. of courses</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>No. of Students</t>
-  </si>
-  <si>
-    <t>Club_ID</t>
-  </si>
-  <si>
-    <t>Club_name</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>num_clubs</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>num_students_club</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,25 +49,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,299 +414,562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col width="16.85546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="24.42578125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="19.28515625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="23.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>student_admission</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DoB</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Guardian Names</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guardian Telephone</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/01/2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lesli Kumara</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6465784395893</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dave</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1/1/2005</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sam, Agnetha</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>457843769543</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Garry</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dave</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5/6/2005</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>David, Sally</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7585349769857</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscat, Oman, </t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="1">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12" customWidth="1" style="1" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="29.5703125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.5703125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.7109375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>course_duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prerequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instructors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No. of courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.28515625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.42578125" customWidth="1" style="1" min="6" max="10"/>
+    <col width="14" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>g1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>g2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>g3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>g5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>num_clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>num_students_club</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DC351B-FD09-4767-A219-4A5D8BE3E2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E2952-5BBF-4C1D-8E30-9E7248C50093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="courses" sheetId="2" r:id="rId2"/>
-    <sheet name="student_courses" sheetId="3" r:id="rId3"/>
-    <sheet name="clubs" sheetId="4" r:id="rId4"/>
-    <sheet name="student_clubs" sheetId="5" r:id="rId5"/>
+    <sheet name="removed_students" sheetId="2" r:id="rId2"/>
+    <sheet name="courses" sheetId="3" r:id="rId3"/>
+    <sheet name="student_courses" sheetId="4" r:id="rId4"/>
+    <sheet name="clubs" sheetId="5" r:id="rId5"/>
+    <sheet name="student_clubs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>student_admission</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>no. of Students</t>
+  </si>
+  <si>
+    <t>Num Students</t>
   </si>
   <si>
     <t>course_id</t>
@@ -459,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -502,53 +506,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
       <c r="J2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -561,6 +530,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
@@ -581,25 +620,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,8 +656,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
@@ -638,40 +677,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -689,8 +728,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
@@ -701,21 +740,21 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -733,8 +772,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
@@ -748,25 +787,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/university.xlsx
+++ b/university.xlsx
@@ -1,143 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7E2952-5BBF-4C1D-8E30-9E7248C50093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="removed_students" sheetId="2" r:id="rId2"/>
-    <sheet name="courses" sheetId="3" r:id="rId3"/>
-    <sheet name="student_courses" sheetId="4" r:id="rId4"/>
-    <sheet name="clubs" sheetId="5" r:id="rId5"/>
-    <sheet name="student_clubs" sheetId="6" r:id="rId6"/>
+    <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="removed_students" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="student_courses" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="clubs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="student_clubs" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
-  <si>
-    <t>student_admission</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Guardian Names</t>
-  </si>
-  <si>
-    <t>Guardian Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>Num Students</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>course_name</t>
-  </si>
-  <si>
-    <t>course_duration</t>
-  </si>
-  <si>
-    <t>prerequisites</t>
-  </si>
-  <si>
-    <t>instructors</t>
-  </si>
-  <si>
-    <t>No. of courses</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>No. of Students</t>
-  </si>
-  <si>
-    <t>Club_ID</t>
-  </si>
-  <si>
-    <t>Club_name</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>num_clubs</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>num_students_club</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,25 +50,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -462,135 +415,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col width="16.85546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="24.42578125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="19.28515625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="23.140625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>student_admission</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DoB</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Guardian Names</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guardian Telephone</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/01/2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lesli Kumara, Gangani Madawala</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84593475893075894375Turi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>no. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1"/>
+    <row r="5" ht="12.75" customHeight="1" s="1"/>
+    <row r="6" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="7" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="29.28515625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>student_admission</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>DoB</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Guardian Names</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guardian Telephone</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Num Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dave</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01/12/2005</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sam Lee, Agnetha Lee</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>578345974857</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -599,227 +668,315 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12" customWidth="1" style="1" min="4" max="4"/>
+    <col width="11.140625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="29.5703125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.5703125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="18.7109375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>course_duration</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>prerequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instructors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No. of courses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.28515625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.42578125" customWidth="1" style="1" min="6" max="10"/>
+    <col width="14" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>student_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>course_id</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>course_name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>g1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>g2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>g3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>g4</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>g5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>No. of Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>num_clubs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4">
+    <row r="1" ht="12.75" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>fname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>lname</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Club_ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Club_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="1"/>
+    <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>num_students_club</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -420,13 +420,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col width="16.85546875" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -479,44 +479,6 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="1">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hasith</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dewmina</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18/01/2006</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Lesli Kumara, Gangani Madawala</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>84593475893075894375Turi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ruwi, Muscat, Oman</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>no. of Students</t>
@@ -525,7 +487,7 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1"/>
@@ -557,7 +519,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="16.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -613,6 +575,44 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/01/2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lesli Kumara, Gangani Madawala</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>84593475893075894375Turi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Num Students</t>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -757,7 +757,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -921,7 +921,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -420,13 +420,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="16.85546875" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -479,6 +479,44 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dewmina</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18/06/2006</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lesli Kumara, Gangani Madwala</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>483573489579</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ruwi, Muscat, Oman</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>no. of Students</t>
@@ -486,8 +524,46 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>fdfd</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1"/>
@@ -515,11 +591,11 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="16.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -575,44 +651,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hasith</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dewmina</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18/01/2006</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Lesli Kumara, Gangani Madawala</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>84593475893075894375Turi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ruwi, Muscat, Oman</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Num Students</t>
@@ -635,7 +673,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>02/01/2005</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -650,7 +688,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>578345974857</t>
+          <t>78t7r8te9ter</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -659,7 +697,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +717,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -757,7 +795,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -917,11 +955,11 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15885" windowWidth="28800" xWindow="390" yWindow="390"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,19 +47,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -420,23 +420,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="16.85546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="24.42578125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="19.28515625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="23.140625" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13.85546875" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="1" width="16.85546875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.28515625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="24.42578125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.28515625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.140625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="13.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>student_admission</t>
@@ -478,100 +478,24 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hasith</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dewmina</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18/06/2006</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Lesli Kumara, Gangani Madwala</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>483573489579</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ruwi, Muscat, Oman</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="12.75" r="2" s="1">
       <c r="J2" t="inlineStr">
         <is>
           <t>no. of Students</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="1">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>hj</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>hj</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>hj</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>fdfd</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>hj</t>
-        </is>
-      </c>
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="J3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
-    <row r="5" ht="12.75" customHeight="1" s="1"/>
-    <row r="6" ht="12.75" customHeight="1" s="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.75" r="4" s="1"/>
+    <row customHeight="1" ht="12.75" r="5" s="1"/>
+    <row customHeight="1" ht="12.75" r="6" s="1"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -591,21 +515,21 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="160">
       <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="16.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="7" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="29.28515625" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
-    <col width="12.85546875" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="10.140625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="29.28515625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="17.7109375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="18.7109375"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,6 +575,44 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>fdfd</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Num Students</t>
@@ -697,11 +659,11 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -713,23 +675,23 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="12" customWidth="1" style="1" min="4" max="4"/>
-    <col width="11.140625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="29.5703125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.5703125" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.7109375" customWidth="1" style="1" min="8" max="8"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.28515625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.42578125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="14.5703125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="12"/>
+    <col customWidth="1" max="5" min="5" style="1" width="11.140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="29.5703125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="8.5703125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>course_id</t>
@@ -756,22 +718,22 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1"/>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="2" s="1"/>
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="F3" t="inlineStr">
         <is>
           <t>No. of courses</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="4" s="1">
       <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -791,22 +753,22 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.28515625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.42578125" customWidth="1" style="1" min="6" max="10"/>
-    <col width="14" customWidth="1" style="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.7109375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="6.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="9"/>
+    <col customWidth="1" max="4" min="4" style="1" width="9.28515625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="12.42578125"/>
+    <col customWidth="1" max="10" min="6" style="1" width="8.42578125"/>
+    <col customWidth="1" max="12" min="12" style="1" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>student_id</t>
@@ -858,22 +820,22 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1"/>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="2" s="1"/>
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="L3" t="inlineStr">
         <is>
           <t>No. of Students</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="4" s="1">
       <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -893,13 +855,13 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Club_ID</t>
@@ -921,21 +883,21 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="F3" t="inlineStr">
         <is>
           <t>num_clubs</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="4" s="1">
       <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -955,16 +917,16 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
+    <col customWidth="1" max="8" min="8" style="1" width="17.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="1" s="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Student_ID</t>
@@ -991,23 +953,23 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1"/>
-    <row r="3" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="2" s="1"/>
+    <row customHeight="1" ht="12.75" r="3" s="1">
       <c r="H3" t="inlineStr">
         <is>
           <t>num_students_club</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
+    <row customHeight="1" ht="12.75" r="4" s="1">
       <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="1"/>
+    <row customHeight="1" ht="12.75" r="5" s="1"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>

--- a/university.xlsx
+++ b/university.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15885" windowWidth="28800" xWindow="390" yWindow="390"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,18 +15,33 @@
     <sheet name="student_clubs" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -46,20 +62,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -416,87 +454,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.28515625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="16.85546875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="14.28515625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="24.42578125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="19.28515625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="23.140625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="13.85546875"/>
+    <col width="16.87" customWidth="1" style="3" min="1" max="1"/>
+    <col width="14.28" customWidth="1" style="3" min="5" max="5"/>
+    <col width="24.41" customWidth="1" style="3" min="6" max="6"/>
+    <col width="19.3" customWidth="1" style="3" min="7" max="7"/>
+    <col width="23.15" customWidth="1" style="3" min="8" max="8"/>
+    <col width="13.86" customWidth="1" style="3" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>student_admission</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DoB</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Guardian Names</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Guardian Telephone</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" s="1">
-      <c r="J2" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>no. of Students</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="3" s="1">
-      <c r="J3" t="n">
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="J3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="1"/>
-    <row customHeight="1" ht="12.75" r="5" s="1"/>
-    <row customHeight="1" ht="12.75" r="6" s="1"/>
+    <row r="4" ht="12.75" customHeight="1" s="4"/>
+    <row r="5" ht="12.75" customHeight="1" s="4"/>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -509,232 +548,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" zoomScaleNormal="160">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="16.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="10.140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="10"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="1" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="1" width="7"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="1" width="29.28515625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="1" width="17.7109375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="1" width="18.7109375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="12.85546875"/>
+    <col width="16.71" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.13" customWidth="1" style="3" min="2" max="2"/>
+    <col width="10" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.58" customWidth="1" style="3" min="4" max="4"/>
+    <col width="7" customWidth="1" style="3" min="5" max="5"/>
+    <col width="29.29" customWidth="1" style="3" min="6" max="6"/>
+    <col width="17.71" customWidth="1" style="3" min="7" max="7"/>
+    <col width="18.71" customWidth="1" style="3" min="8" max="8"/>
+    <col width="12.86" customWidth="1" style="3" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>student_admission</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DoB</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Guardian Names</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Guardian Telephone</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>hj</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>j</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>hj</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>hj</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>fdfd</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>hj</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Num Students</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Dave</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Lee</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>02/01/2005</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Sam Lee, Agnetha Lee</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>78t7r8te9ter</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Ruwi, Muscat, Oman</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.28515625"/>
-    <col customWidth="1" max="2" min="2" style="1" width="12.42578125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="14.5703125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12"/>
-    <col customWidth="1" max="5" min="5" style="1" width="11.140625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="29.5703125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="8.5703125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="18.7109375"/>
+    <col width="9.289999999999999" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.42" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.57" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.99" customWidth="1" style="3" min="4" max="4"/>
+    <col width="11.14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="29.57" customWidth="1" style="3" min="6" max="6"/>
+    <col width="8.57" customWidth="1" style="3" min="7" max="7"/>
+    <col width="18.71" customWidth="1" style="3" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>course_id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>course_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>course_duration</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>prerequisites</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>instructors</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" s="1"/>
-    <row customHeight="1" ht="12.75" r="3" s="1">
-      <c r="F3" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5 Days</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Basic Algebra</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sam Davis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>No. of courses</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="1">
-      <c r="F4" t="n">
-        <v>0</v>
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="F4" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -747,96 +813,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.7109375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="6.28515625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="9"/>
-    <col customWidth="1" max="4" min="4" style="1" width="9.28515625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="12.42578125"/>
-    <col customWidth="1" max="10" min="6" style="1" width="8.42578125"/>
-    <col customWidth="1" max="12" min="12" style="1" width="14"/>
+    <col width="9.710000000000001" customWidth="1" style="3" min="1" max="1"/>
+    <col width="6.28" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9.289999999999999" customWidth="1" style="3" min="4" max="4"/>
+    <col width="12.42" customWidth="1" style="3" min="5" max="5"/>
+    <col width="8.41" customWidth="1" style="3" min="6" max="10"/>
+    <col width="14.01" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>student_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>fname</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>lname</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>course_id</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>course_name</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>g1</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>g2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>g3</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>g4</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>g5</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" s="1"/>
-    <row customHeight="1" ht="12.75" r="3" s="1">
-      <c r="L3" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4"/>
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>No. of Students</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="1">
-      <c r="L4" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="L4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -849,56 +916,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Club_ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Club_name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="3" s="1">
-      <c r="F3" t="inlineStr">
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>num_clubs</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="1">
-      <c r="F4" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>
@@ -911,66 +979,67 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="156" zoomScaleNormal="156">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="8" min="8" style="1" width="17.5703125"/>
+    <col width="17.59" customWidth="1" style="3" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" s="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Student_ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>fname</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>lname</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Club_ID</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Club_name</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" s="1"/>
-    <row customHeight="1" ht="12.75" r="3" s="1">
-      <c r="H3" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4"/>
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>num_students_club</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="4" s="1">
-      <c r="H4" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="5" s="1"/>
+    <row r="5" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
     <evenHeader/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -464,7 +464,7 @@
       <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.87" customWidth="1" style="3" min="1" max="1"/>
     <col width="14.28" customWidth="1" style="3" min="5" max="5"/>
@@ -558,7 +558,7 @@
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.71" customWidth="1" style="3" min="1" max="1"/>
     <col width="10.13" customWidth="1" style="3" min="2" max="2"/>
@@ -615,41 +615,41 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" s="4">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>Dewmina</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>06/2006/01</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>fdfd</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>jhk</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="J3" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +720,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="9.289999999999999" customWidth="1" style="3" min="1" max="1"/>
     <col width="12.42" customWidth="1" style="3" min="2" max="2"/>
@@ -760,25 +760,25 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Maths</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>5 Days</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Basic Algebra</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Sam Davis</t>
         </is>
@@ -823,7 +823,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="9.710000000000001" customWidth="1" style="3" min="1" max="1"/>
     <col width="6.28" customWidth="1" style="3" min="2" max="2"/>
@@ -989,7 +989,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="17.59" customWidth="1" style="3" min="8" max="8"/>
   </cols>

--- a/university.xlsx
+++ b/university.xlsx
@@ -464,7 +464,7 @@
       <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="16.87" customWidth="1" style="3" min="1" max="1"/>
     <col width="14.28" customWidth="1" style="3" min="5" max="5"/>
@@ -558,7 +558,7 @@
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="16.71" customWidth="1" style="3" min="1" max="1"/>
     <col width="10.13" customWidth="1" style="3" min="2" max="2"/>
@@ -720,7 +720,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="9.289999999999999" customWidth="1" style="3" min="1" max="1"/>
     <col width="12.42" customWidth="1" style="3" min="2" max="2"/>
@@ -785,6 +785,29 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4 Days</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bio, Chem, Phy</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sam, Lucy</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
           <t>No. of courses</t>
@@ -793,7 +816,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" s="4">
       <c r="F4" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -823,7 +846,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="9.710000000000001" customWidth="1" style="3" min="1" max="1"/>
     <col width="6.28" customWidth="1" style="3" min="2" max="2"/>
@@ -989,7 +1012,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.59" customWidth="1" style="3" min="8" max="8"/>
   </cols>

--- a/university.xlsx
+++ b/university.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t xml:space="preserve">student_admission</t>
   </si>
@@ -355,12 +355,12 @@
       <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
   </cols>
@@ -453,13 +453,13 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -499,10 +499,10 @@
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7"/>
@@ -618,7 +618,7 @@
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.42"/>
@@ -722,18 +722,18 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.01"/>
   </cols>
   <sheetData>
@@ -769,7 +769,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L3" s="1" t="s">
         <v>58</v>
@@ -777,7 +808,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +833,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -850,7 +881,7 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.59"/>
   </cols>
@@ -906,7 +937,7 @@
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE1965-6F7A-42C2-BBA1-5CCB1D46F53B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738FE676-802E-4FD1-AEC1-60ACCFD282EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="1110" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738FE676-802E-4FD1-AEC1-60ACCFD282EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C464E2C-FD66-430E-AA81-A7AC14F8B055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17325" yWindow="5295" windowWidth="28800" windowHeight="16335" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1179,45 +1179,31 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
+      <c r="A4"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
+      <c r="A5"/>
       <c r="G5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
+      <c r="A6"/>
       <c r="G6">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
+      <c r="A7"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
+      <c r="A10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C464E2C-FD66-430E-AA81-A7AC14F8B055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896B9AF-911D-486E-8F01-EE6B67B99213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17325" yWindow="5295" windowWidth="28800" windowHeight="16335" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8595" yWindow="1575" windowWidth="28800" windowHeight="16335" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -26,104 +26,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">Index No. </t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>DoB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Guardian Names</t>
+  </si>
+  <si>
+    <t>Guardian Telephone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Hasith</t>
+  </si>
+  <si>
+    <t>Dewmina</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Lesli Kumara, Gangani Madawala</t>
+  </si>
+  <si>
+    <t>Ruwi, Muscat, Oman</t>
+  </si>
+  <si>
+    <t>no. of Students</t>
+  </si>
   <si>
     <t>student_admission</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Guardian Names</t>
-  </si>
-  <si>
-    <t>Guardian Telephone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Hasith</t>
-  </si>
-  <si>
-    <t>Dewmina</t>
-  </si>
-  <si>
-    <t>447583497</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Lesli Kumara, Gangani Madawala</t>
-  </si>
-  <si>
-    <t>5347583475893479</t>
-  </si>
-  <si>
-    <t>Ruwi, Muscat, Oman</t>
-  </si>
-  <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>47589</t>
-  </si>
-  <si>
-    <t>Sam Lee, Agnetha Lee</t>
-  </si>
-  <si>
-    <t>845734895739</t>
-  </si>
-  <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>Hillfigure</t>
-  </si>
-  <si>
-    <t>43857348957</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>David Hillfigure, Pauly Hillfigure</t>
-  </si>
-  <si>
-    <t>48378957389</t>
-  </si>
-  <si>
-    <t>5743895739</t>
-  </si>
-  <si>
-    <t>75894375849375</t>
+    <t>76678687</t>
+  </si>
+  <si>
+    <t>874857498379</t>
   </si>
   <si>
     <t>Num Students</t>
   </si>
   <si>
-    <t>02/01/2005</t>
-  </si>
-  <si>
-    <t>78t7r8te9ter</t>
-  </si>
-  <si>
     <t>course_id</t>
   </si>
   <si>
@@ -230,18 +188,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>hasith435</t>
-  </si>
-  <si>
-    <t>ranger445</t>
-  </si>
-  <si>
-    <t>Savin</t>
   </si>
   <si>
     <t>num rows</t>
@@ -602,12 +548,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
@@ -642,89 +588,26 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="A2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -742,7 +625,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -786,60 +669,36 @@
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -870,19 +729,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,19 +766,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,16 +786,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -973,51 +832,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1047,21 +895,21 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1094,25 +942,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,75 +984,48 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-    </row>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5"/>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6"/>
       <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9600" yWindow="2730" windowWidth="28800" windowHeight="16335" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1560" yWindow="1545" windowWidth="28770" windowHeight="15900" tabRatio="500" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,13 +433,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.42578125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -502,32 +502,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dewmina</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75438957</t>
+          <t>hjk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lesli Kumara, Gangani Madawala</t>
+          <t>kh</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>578439574839</t>
+          <t>jkhhj</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ruwi, Muscat, Oman</t>
+          <t>hjkh</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -547,41 +547,278 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>fdfd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>hg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>hjg</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>hgj</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fj</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jkh</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agnetha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>hjk</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>jh</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jkh</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Lee</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4485987</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tim Lee, Agnetha Lee</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>45845743858</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Ruwi, Muscat, Oman</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
-    <row r="5" ht="12.75" customHeight="1" s="1"/>
-    <row r="6" ht="12.75" customHeight="1" s="1"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dffd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kh</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Garry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fgfgf</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>jh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jhj</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>kh</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kumara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hjkh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>jkhjh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>hjkhjkh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>hjkhh</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>hjk</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>hjkhj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>`2h</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hjk</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>jklh</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>hjk</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>lhjk</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -608,7 +845,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="16.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" customWidth="1" style="1" min="2" max="2"/>
@@ -731,7 +968,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -879,7 +1116,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -1043,7 +1280,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
@@ -1109,13 +1346,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10" customWidth="1" style="1" min="2" max="2"/>
@@ -1169,8 +1406,35 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>student3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="12.75" customHeight="1" s="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>student4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Agnetha</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>num rows</t>
@@ -1178,13 +1442,68 @@
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>student5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="1"/>
-    <row r="8" ht="12.75" customHeight="1" s="1"/>
-    <row r="9" ht="12.75" customHeight="1" s="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>student6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Garry</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>student7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kumara</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>student8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>`2h</t>
+        </is>
+      </c>
+    </row>
     <row r="10" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1560" yWindow="1545" windowWidth="28770" windowHeight="15900" tabRatio="500" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15885" tabRatio="500" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -502,32 +502,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>fdfdf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hjk</t>
+          <t>j</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>kj</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>kh</t>
+          <t>klj</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>jkhhj</t>
+          <t>kl</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>hjkh</t>
+          <t>jjkl</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,41 +542,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Lee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fdfd</t>
+          <t>jkljk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>jkl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>hg</t>
+          <t>jkl</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hg</t>
+          <t>jk</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>hjg</t>
+          <t>lj</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>hgj</t>
+          <t>kljkl</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1">
@@ -585,22 +585,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>fj</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>h</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>jkh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>hjk</t>
         </is>
       </c>
     </row>
@@ -625,37 +625,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agnetha</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hjk</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>khjk</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>h</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>jh</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>jkh</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>jk</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>jkhjk</t>
         </is>
       </c>
     </row>
@@ -665,37 +665,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dffd</t>
+          <t>hjh</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>jkh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jkh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>hj</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>hj</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>kh</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>jk</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>hjk</t>
         </is>
       </c>
     </row>
@@ -705,117 +705,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Garry</t>
+          <t>Agnetha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fgfgf</t>
+          <t>j</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>k</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jh</t>
+          <t>kl</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>jhj</t>
+          <t>kl</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>kh</t>
+          <t>jk</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>jk</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Kumara</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>hjkh</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>jkhjh</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>hjkhjkh</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>hjkhh</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>hjk</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>hjkhj</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>`2h</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>hjk</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>jklh</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>jk</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>hjk</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>lhjk</t>
+          <t>lj</t>
         </is>
       </c>
     </row>
@@ -1346,10 +1266,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1402,7 +1322,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Lee</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1337,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Dave</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1352,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Agnetha</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1452,11 +1372,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="1">
@@ -1470,40 +1390,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Garry</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="1">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>student7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Kumara</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="1">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>student8</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>`2h</t>
-        </is>
-      </c>
-    </row>
+          <t>Agnetha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="1"/>
+    <row r="9" ht="12.75" customHeight="1" s="1"/>
     <row r="10" ht="12.75" customHeight="1" s="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15885" tabRatio="500" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4365" yWindow="2100" windowWidth="28800" windowHeight="15855" tabRatio="500" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>ranger445</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/university.xlsx
+++ b/university.xlsx
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ranger445</t>
+          <t>hasith435</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/university.xlsx
+++ b/university.xlsx
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/university.xlsx
+++ b/university.xlsx
@@ -439,7 +439,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.42578125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -765,7 +765,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="16.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" customWidth="1" style="1" min="2" max="2"/>
@@ -888,7 +888,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -1036,7 +1036,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -1138,6 +1138,27 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fdfdf</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>No. of Students</t>
@@ -1145,8 +1166,29 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jkljk</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1279,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
@@ -1309,7 +1351,7 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="12.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10" customWidth="1" style="1" min="2" max="2"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ADE4C0-3EFB-4BE4-A5BF-2A4A089A7A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5972AFC-D7FB-453D-8179-D385ECD15F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3540" windowWidth="28800" windowHeight="15855" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3165" windowWidth="28800" windowHeight="15855" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="student_clubs" sheetId="6" r:id="rId6"/>
     <sheet name="student_pswd" sheetId="7" r:id="rId7"/>
     <sheet name="Teachers" sheetId="8" r:id="rId8"/>
+    <sheet name="notifications" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t xml:space="preserve">Index No. </t>
   </si>
@@ -222,6 +223,15 @@
   </si>
   <si>
     <t>num teachers</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Receiver</t>
   </si>
 </sst>
 </file>
@@ -566,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -726,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,4 +1209,36 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84707451-CDC9-4EC2-91EF-300059D0DEC6}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5972AFC-D7FB-453D-8179-D385ECD15F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA801CF-D2A9-418E-A5D3-E8439C60C0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3165" windowWidth="28800" windowHeight="15855" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="4485" windowWidth="28800" windowHeight="15855" tabRatio="661" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t xml:space="preserve">Index No. </t>
   </si>
@@ -54,15 +54,36 @@
     <t>Address</t>
   </si>
   <si>
+    <t>Hasith</t>
+  </si>
+  <si>
+    <t>Dewmina</t>
+  </si>
+  <si>
+    <t>01/18/2006</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Lesli Kumara, Gangani Madawala</t>
+  </si>
+  <si>
+    <t>74895738957</t>
+  </si>
+  <si>
+    <t>Ruwi, Muscat, Oman</t>
+  </si>
+  <si>
+    <t>no. of Students</t>
+  </si>
+  <si>
+    <t>student_admission</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>no. of Students</t>
-  </si>
-  <si>
-    <t>student_admission</t>
-  </si>
-  <si>
     <t>Num Students</t>
   </si>
   <si>
@@ -102,9 +123,6 @@
     <t>Bio, Chem, Phy</t>
   </si>
   <si>
-    <t>Sam, Lucy</t>
-  </si>
-  <si>
     <t>No. of courses</t>
   </si>
   <si>
@@ -117,9 +135,6 @@
     <t>Esaay Writing, Language</t>
   </si>
   <si>
-    <t>David, Matt</t>
-  </si>
-  <si>
     <t>student_id</t>
   </si>
   <si>
@@ -144,12 +159,6 @@
     <t>g5</t>
   </si>
   <si>
-    <t>Hasith</t>
-  </si>
-  <si>
-    <t>fdfdf</t>
-  </si>
-  <si>
     <t>No. of Students</t>
   </si>
   <si>
@@ -180,70 +189,61 @@
     <t>password</t>
   </si>
   <si>
-    <t>student2</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>student3</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>student4</t>
+    <t>student1</t>
   </si>
   <si>
     <t>num rows</t>
   </si>
   <si>
-    <t>student5</t>
+    <t>Teacher ID</t>
+  </si>
+  <si>
+    <t>Qualifications</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>num teachers</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Notification ID</t>
+  </si>
+  <si>
+    <t>num notifications</t>
   </si>
   <si>
     <t>Sam</t>
   </si>
   <si>
-    <t>student6</t>
-  </si>
-  <si>
-    <t>Agnetha</t>
-  </si>
-  <si>
-    <t>student1</t>
-  </si>
-  <si>
-    <t>Teacher ID</t>
-  </si>
-  <si>
-    <t>Qualifications</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>num teachers</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Receiver</t>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,12 +266,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,18 +618,37 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -668,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -697,28 +717,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -734,10 +754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,19 +774,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,16 +794,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -791,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -811,20 +831,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -841,7 +864,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -857,34 +880,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -892,21 +915,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,21 +959,21 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -983,25 +1006,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,7 +1048,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1037,10 +1060,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1051,95 +1074,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
       <c r="G6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1152,14 +1107,14 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1168,37 +1123,20 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1212,30 +1150,48 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84707451-CDC9-4EC2-91EF-300059D0DEC6}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA801CF-D2A9-418E-A5D3-E8439C60C0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A3E5A-A246-4960-BD01-12995245F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4485" windowWidth="28800" windowHeight="15855" tabRatio="661" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="710" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="student_clubs" sheetId="6" r:id="rId6"/>
     <sheet name="student_pswd" sheetId="7" r:id="rId7"/>
     <sheet name="Teachers" sheetId="8" r:id="rId8"/>
-    <sheet name="notifications" sheetId="9" r:id="rId9"/>
+    <sheet name="teacher_psswd" sheetId="9" r:id="rId9"/>
+    <sheet name="notifications" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t xml:space="preserve">Index No. </t>
   </si>
@@ -123,6 +124,9 @@
     <t>Bio, Chem, Phy</t>
   </si>
   <si>
+    <t>Sam</t>
+  </si>
+  <si>
     <t>No. of courses</t>
   </si>
   <si>
@@ -135,6 +139,9 @@
     <t>Esaay Writing, Language</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
     <t>student_id</t>
   </si>
   <si>
@@ -207,25 +214,28 @@
     <t>num teachers</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Receiver</t>
-  </si>
-  <si>
-    <t>Notification ID</t>
+    <t>Notification id</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Course Enrollment</t>
+  </si>
+  <si>
+    <t>Hasith would like to enroll in the Maths</t>
   </si>
   <si>
     <t>num notifications</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>David</t>
   </si>
 </sst>
 </file>
@@ -665,6 +675,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
@@ -820,10 +895,10 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -831,16 +906,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -880,13 +955,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -895,19 +970,19 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,12 +1004,12 @@
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -959,21 +1034,21 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,25 +1081,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,7 +1123,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1060,10 +1135,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1074,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1084,7 +1159,7 @@
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1106,15 +1181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1123,15 +1198,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1151,46 +1226,41 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A3E5A-A246-4960-BD01-12995245F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165CACBA-24B2-4F01-82FD-321EC8F34DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="710" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="3060" windowWidth="28800" windowHeight="15855" tabRatio="710" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t xml:space="preserve">Index No. </t>
   </si>
@@ -79,124 +79,139 @@
     <t>no. of Students</t>
   </si>
   <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>jhj</t>
+  </si>
+  <si>
     <t>student_admission</t>
   </si>
   <si>
+    <t>Num Students</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>course_duration</t>
+  </si>
+  <si>
+    <t>prerequisites</t>
+  </si>
+  <si>
+    <t>instructors</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t>Basic Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam </t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>Bio, Chem, Phy</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>No. of courses</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>Esaay Writing, Language</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>No. of Students</t>
+  </si>
+  <si>
+    <t>Club_ID</t>
+  </si>
+  <si>
+    <t>Club_name</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>num_clubs</t>
+  </si>
+  <si>
+    <t>Student_ID</t>
+  </si>
+  <si>
+    <t>num_students_club</t>
+  </si>
+  <si>
+    <t>index number</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Num Students</t>
-  </si>
-  <si>
-    <t>course_id</t>
-  </si>
-  <si>
-    <t>course_name</t>
-  </si>
-  <si>
-    <t>course_duration</t>
-  </si>
-  <si>
-    <t>prerequisites</t>
-  </si>
-  <si>
-    <t>instructors</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>5 Days</t>
-  </si>
-  <si>
-    <t>Basic Algebra</t>
-  </si>
-  <si>
-    <t>Sam Davis</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>4 Days</t>
-  </si>
-  <si>
-    <t>Bio, Chem, Phy</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>No. of courses</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>7 Days</t>
-  </si>
-  <si>
-    <t>Esaay Writing, Language</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>No. of Students</t>
-  </si>
-  <si>
-    <t>Club_ID</t>
-  </si>
-  <si>
-    <t>Club_name</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>num_clubs</t>
-  </si>
-  <si>
-    <t>Student_ID</t>
-  </si>
-  <si>
-    <t>num_students_club</t>
-  </si>
-  <si>
-    <t>index number</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>student1</t>
+    <t>student2</t>
   </si>
   <si>
     <t>num rows</t>
@@ -211,9 +226,21 @@
     <t>Experience</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Maths Phd</t>
+  </si>
+  <si>
+    <t>5 Years</t>
+  </si>
+  <si>
     <t>num teachers</t>
   </si>
   <si>
+    <t>lecturer1</t>
+  </si>
+  <si>
     <t>Notification id</t>
   </si>
   <si>
@@ -229,7 +256,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>Course Enrollment</t>
+    <t>COURSE ENROLLMENT</t>
   </si>
   <si>
     <t>Hasith would like to enroll in the Maths</t>
@@ -588,7 +615,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -657,8 +684,32 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -685,29 +736,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -715,19 +766,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -763,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -788,37 +839,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +859,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E15" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -849,19 +876,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,16 +896,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -886,19 +913,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,16 +933,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -939,7 +966,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -955,34 +982,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -999,17 +1026,17 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1027,28 +1054,28 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1081,25 +1108,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1122,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,10 +1162,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1149,22 +1176,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,15 +1218,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1198,20 +1235,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1283,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1242,26 +1296,34 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165CACBA-24B2-4F01-82FD-321EC8F34DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E961D6-6893-4C16-8796-CCDA3D3762F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3060" windowWidth="28800" windowHeight="15855" tabRatio="710" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="710" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t xml:space="preserve">Index No. </t>
   </si>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1030,13 +1030,43 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/university.xlsx
+++ b/university.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Pycharm\University-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E961D6-6893-4C16-8796-CCDA3D3762F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DFF56-DBEA-4BA7-B7F1-FAF275891A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="710" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t xml:space="preserve">Index No. </t>
   </si>
@@ -124,7 +124,7 @@
     <t>Basic Algebra</t>
   </si>
   <si>
-    <t xml:space="preserve">Sam </t>
+    <t>Matt</t>
   </si>
   <si>
     <t>Science</t>
@@ -226,7 +226,7 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>Davis</t>
+    <t>Peterson</t>
   </si>
   <si>
     <t>Maths Phd</t>
@@ -235,12 +235,24 @@
     <t>5 Years</t>
   </si>
   <si>
+    <t>Henchkins</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
     <t>num teachers</t>
   </si>
   <si>
     <t>lecturer1</t>
   </si>
   <si>
+    <t>lecturer2</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
     <t>Notification id</t>
   </si>
   <si>
@@ -254,12 +266,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>COURSE ENROLLMENT</t>
-  </si>
-  <si>
-    <t>Hasith would like to enroll in the Maths</t>
   </si>
   <si>
     <t>num notifications</t>
@@ -731,7 +737,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -746,44 +752,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +855,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E15" sqref="E14:E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,60 +1009,25 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="L3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
       <c r="L4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1141,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1181,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1210,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -1289,13 +1250,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1340,20 +1316,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4155" yWindow="2460" windowWidth="28800" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2970" yWindow="3870" windowWidth="28770" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -574,10 +574,49 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Henckins</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hjh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>hjhj</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>hjhj</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>hjhjhj</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>hjh</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="12.75" customHeight="1" s="1"/>
     <row r="6" ht="12.75" customHeight="1" s="1"/>
     <row r="7" ht="12.75" customHeight="1" s="1"/>
@@ -601,9 +640,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -657,15 +696,34 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COURSE ENROLLMENT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lucy would like to enroll in the Maths</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -913,9 +971,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -984,16 +1042,16 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" s="1">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Dewmina</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1006,6 +1064,27 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Henckins</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>No. of Students</t>
@@ -1013,10 +1092,84 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Henckins</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
       <c r="L4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Henckins</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-    </row>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Henckins</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
@@ -1231,7 +1384,21 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
+    <row r="4" ht="12.75" customHeight="1" s="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>student3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="12.75" customHeight="1" s="1">
       <c r="G5" t="inlineStr">
         <is>
@@ -1241,7 +1408,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" s="1">
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="1"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2970" yWindow="3870" windowWidth="28770" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8085" yWindow="3090" windowWidth="28770" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -431,13 +431,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.42578125" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -505,27 +505,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01/18/2006</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>h</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lesli Kumara, Gangani Madawala</t>
+          <t>jh</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>74895738957</t>
+          <t>j</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ruwi, Muscat, Oman</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -550,22 +550,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>hjh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>jhj</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>h</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>jh</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,49 +574,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lucy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Henckins</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>hjh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>hjhj</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>hjhj</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>hjhjhj</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>hjh</t>
-        </is>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1"/>
     <row r="5" ht="12.75" customHeight="1" s="1"/>
     <row r="6" ht="12.75" customHeight="1" s="1"/>
     <row r="7" ht="12.75" customHeight="1" s="1"/>
@@ -640,13 +601,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="22.5703125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -684,11 +645,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COURSE ENROLLMENT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hasith would like to enroll in the Maths</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>num notifications</t>
@@ -696,34 +675,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COURSE ENROLLMENT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lucy</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lucy would like to enroll in the Maths</t>
-        </is>
-      </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,7 +696,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="16.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" customWidth="1" style="1" min="2" max="2"/>
@@ -826,7 +781,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -971,13 +926,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -1065,16 +1020,16 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Henckins</t>
+          <t>Dewmina</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1092,84 +1047,10 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lucy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Henckins</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
-      </c>
       <c r="L4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lucy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Henckins</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lucy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Henckins</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
@@ -1258,7 +1139,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
@@ -1330,7 +1211,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10" customWidth="1" style="1" min="2" max="2"/>
@@ -1384,21 +1265,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>student3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lucy</t>
-        </is>
-      </c>
-    </row>
+    <row r="4" ht="12.75" customHeight="1" s="1"/>
     <row r="5" ht="12.75" customHeight="1" s="1">
       <c r="G5" t="inlineStr">
         <is>
@@ -1408,7 +1275,7 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" s="1">
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="1"/>
@@ -1430,7 +1297,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1468,49 +1335,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matt</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>j</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maths Phd</t>
+          <t>kjk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5 Years</t>
+          <t>j</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sam</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Henchkins</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>jh</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>num teachers</t>
@@ -1519,7 +1363,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1">
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1392,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -1590,16 +1434,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lecturer2</t>
+          <t>lecturer1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lucy</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">

--- a/university.xlsx
+++ b/university.xlsx
@@ -437,7 +437,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.42578125" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -604,17 +604,17 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="22.5703125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
     <col width="6.7109375" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
     <col width="9.85546875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
     <col width="33.85546875" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" style="1" min="7" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -643,6 +643,14 @@
           <t>description</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>num_notifications</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -655,7 +663,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -665,16 +673,33 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dave would like to enroll in the Maths</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Hasith would like to enroll in the Maths</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COURSE ENROLLMENT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hasith would like to enroll in the Maths</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -694,7 +719,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="16.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" customWidth="1" style="1" min="2" max="2"/>
@@ -779,7 +804,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -924,13 +949,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -995,16 +1020,16 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" s="1">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Dewmina</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1018,16 +1043,16 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>Hasith</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Dewmina</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1049,7 +1074,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
@@ -1138,7 +1162,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
@@ -1210,7 +1234,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10" customWidth="1" style="1" min="2" max="2"/>
@@ -1391,7 +1415,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="12.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>

--- a/university.xlsx
+++ b/university.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3225" yWindow="2775" windowWidth="28770" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="removed_students" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="courses" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="student_courses" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="clubs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="student_clubs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="student_pswd" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Teachers" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="teacher_psswd" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="notifications" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="removed_students" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="courses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student_courses" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clubs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student_clubs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="student_pswd" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Teachers" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teacher_psswd" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="notifications" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -601,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="H1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -697,6 +697,31 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Hasith would like to enroll in the Maths</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>COURSE ENROLLMENT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Hasith</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Hasith would like to enroll in the Maths</t>
         </is>

--- a/university.xlsx
+++ b/university.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3225" yWindow="2775" windowWidth="28770" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15885" tabRatio="710" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,7 +437,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.42578125" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.42578125" customWidth="1" style="1" min="1" max="1"/>
     <col width="14.28515625" customWidth="1" style="1" min="5" max="5"/>
@@ -601,13 +601,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="12.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="22.5703125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -649,59 +649,10 @@
         </is>
       </c>
       <c r="H1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>COURSE ENROLLMENT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hasith</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Hasith would like to enroll in the Maths</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COURSE ENROLLMENT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Hasith</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hasith would like to enroll in the Maths</t>
-        </is>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -719,7 +670,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="16.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" customWidth="1" style="1" min="2" max="2"/>
@@ -804,7 +755,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.28515625" customWidth="1" style="1" min="1" max="1"/>
     <col width="12.42578125" customWidth="1" style="1" min="2" max="2"/>
@@ -952,10 +903,10 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="9.7109375" customWidth="1" style="1" min="1" max="1"/>
     <col width="6.28515625" customWidth="1" style="1" min="2" max="2"/>
@@ -1042,27 +993,6 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="1">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hasith</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dewmina</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>No. of Students</t>
@@ -1071,7 +1001,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" s="1">
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1092,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="17.5703125" customWidth="1" style="1" min="8" max="8"/>
   </cols>
@@ -1234,7 +1164,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="12.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10" customWidth="1" style="1" min="2" max="2"/>
@@ -1415,7 +1345,7 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="12.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
